--- a/src/test/resources/IndicToIndicTransliterationTests/SourceLanguageNormalizationTest.xlsx
+++ b/src/test/resources/IndicToIndicTransliterationTests/SourceLanguageNormalizationTest.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:D28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,7 +905,7 @@
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="2"/>
